--- a/spreadsheet/macrofree/wafsg_checklist.en.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.en.xlsx
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute dedicated circuits guarantee `99.95%` availability when an active-active connectivity is configured between on-premises and Azure. This mode provides higher availability of your Expressroute connection. It's also recommended to configure BFD for faster failover if there's a link failure on a connection.</t>
+          <t>This mode provides higher availability of your Expressroute connections. It's also recommended to configure BFD for faster failover if there's a link failure on a connection.</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>Create availability zone aware Virtual Network Gateway for higher resiliency and plan for Virtual Network Gateways in different region for disaster recovery and high availability.</t>
+          <t>Create availability zone aware Virtual Network Gateway for higher resiliency and plan for Virtual Network Gateways in different regions for resiliency, disaster recovery, and high availability.</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
